--- a/Data/parallelMPI_consolidated_data.xlsx
+++ b/Data/parallelMPI_consolidated_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40056761\Documents\SET10108Coursework_2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\SET10108Coursework_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parallelMPI_consolidated_data!$B$8:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="10">
   <si>
     <t>Method</t>
   </si>
@@ -195,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,12 +375,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -544,7 +538,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -590,8 +584,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -658,7 +680,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1818,7 +1839,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1941,7 +1961,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2017,7 +2036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2139,7 +2157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3245,7 +3262,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3305,7 +3321,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3430,7 +3445,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3506,7 +3520,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5298,6 +5311,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5333,6 +5363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5487,8 +5534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A103" sqref="A98:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8634,196 +8681,70 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="1">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="D98" s="1">
-        <v>16</v>
-      </c>
-      <c r="E98" s="1">
-        <v>256</v>
-      </c>
-      <c r="F98" s="1">
-        <v>64</v>
-      </c>
-      <c r="G98" s="1">
-        <v>404</v>
-      </c>
-      <c r="H98">
-        <f>M$2/G98</f>
-        <v>14.195544554455445</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="13"/>
-        <v>0.22180538366336633</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="1">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="D99" s="1">
-        <v>16</v>
-      </c>
-      <c r="E99" s="1">
-        <v>256</v>
-      </c>
-      <c r="F99" s="1">
-        <v>64</v>
-      </c>
-      <c r="G99" s="1">
-        <v>520</v>
-      </c>
-      <c r="H99">
-        <f>M$3/G99</f>
-        <v>20.757692307692309</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="13"/>
-        <v>0.32433894230769234</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="1">
-        <v>16</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="D100" s="1">
-        <v>16</v>
-      </c>
-      <c r="E100" s="1">
-        <v>256</v>
-      </c>
-      <c r="F100" s="1">
-        <v>64</v>
-      </c>
-      <c r="G100" s="1">
-        <v>600</v>
-      </c>
-      <c r="H100">
-        <f>M$4/G100</f>
-        <v>35.47</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="13"/>
-        <v>0.55421874999999998</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="1">
-        <v>32</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="D101" s="1">
-        <v>16</v>
-      </c>
-      <c r="E101" s="1">
-        <v>256</v>
-      </c>
-      <c r="F101" s="1">
-        <v>64</v>
-      </c>
-      <c r="G101" s="1">
-        <v>819</v>
-      </c>
-      <c r="H101">
-        <f>M$5/G101</f>
-        <v>51.073260073260073</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="13"/>
-        <v>0.79801968864468864</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="1">
-        <v>64</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="D102" s="1">
-        <v>16</v>
-      </c>
-      <c r="E102" s="1">
-        <v>256</v>
-      </c>
-      <c r="F102" s="1">
-        <v>64</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1546</v>
-      </c>
-      <c r="H102">
-        <f>M$6/G102</f>
-        <v>53.852522639068567</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="13"/>
-        <v>0.84144566623544637</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="1">
-        <v>128</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="D103" s="1">
-        <v>16</v>
-      </c>
-      <c r="E103" s="1">
-        <v>256</v>
-      </c>
-      <c r="F103" s="1">
-        <v>64</v>
-      </c>
-      <c r="G103" s="1">
-        <v>3037</v>
-      </c>
-      <c r="H103">
-        <f>M$7/G103</f>
-        <v>54.443529799143889</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="13"/>
-        <v>0.85068015311162326</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B8:H19">
@@ -8839,7 +8760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
